--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Grey Petrel_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Grey Petrel_Prince Edward Islands.xlsx
@@ -4190,13 +4190,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F71A606-9D59-4003-AF65-4C20EF4FE64B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B2BC27-2089-424E-96EE-781F7C327EA7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6CFD049-66EB-4BE4-81AA-A73CE312792F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A6418A-9F7D-4C94-A0A2-308F88C7CD7C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B130EFD-A1B3-4CD7-B650-28490FBED404}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A24515-9632-4F43-9826-C78652510912}"/>
 </file>